--- a/Collections/TMP/Иностранные_дубли.xlsx
+++ b/Collections/TMP/Иностранные_дубли.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368AFA9A-C22A-43F1-81A3-1DA2B07F85C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800570FA-7598-45EF-AF1F-162A34F59B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9470" yWindow="2030" windowWidth="28800" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8930" yWindow="4510" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Монеты" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t>0.002 USD</t>
   </si>
   <si>
-    <t>10 лир</t>
-  </si>
-  <si>
     <t>https://en.ucoin.net/coin/turkey-10000-lira-1994-1997/?tid=16431</t>
   </si>
   <si>
@@ -534,6 +531,9 @@
   </si>
   <si>
     <t>20 центов</t>
+  </si>
+  <si>
+    <t>1000 лир</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-D00041E]0"/>
+    <numFmt numFmtId="164" formatCode="[$-D00041E]0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -800,6 +800,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,14 +816,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -822,17 +825,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -842,254 +842,6 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1097,6 +849,254 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1149,9 +1149,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="32" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1439,33 +1439,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
@@ -1473,14 +1473,14 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1491,23 +1491,23 @@
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8">
         <v>5</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>111</v>
+        <v>93</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1532,7 +1532,7 @@
       <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="H9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       <c r="H10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       <c r="H11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       <c r="H13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1778,10 +1778,10 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="22" t="s">
         <v>59</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1789,10 +1789,10 @@
         <v>1999</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1800,13 +1800,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1814,10 +1814,10 @@
         <v>1972</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1826,10 +1826,10 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="22" t="s">
         <v>67</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1837,10 +1837,10 @@
         <v>1994</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>71</v>
+      <c r="I17" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1862,28 +1862,28 @@
         <v>2000</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>80</v>
+      <c r="I18" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1891,10 +1891,10 @@
         <v>2009</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1902,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="22" t="s">
         <v>83</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1916,10 +1916,10 @@
         <v>1987</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1930,10 +1930,10 @@
         <v>20</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1941,10 +1941,10 @@
         <v>2012</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1952,13 +1952,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>89</v>
+      <c r="I21" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1966,10 +1966,10 @@
         <v>2009</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1977,13 +1977,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>90</v>
+      <c r="I22" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1991,10 +1991,10 @@
         <v>1996</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2003,10 +2003,10 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2014,12 +2014,12 @@
         <v>2001</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="27">
+        <v>100</v>
+      </c>
+      <c r="D24" s="19">
         <v>2544</v>
       </c>
       <c r="E24" s="6"/>
@@ -2027,11 +2027,11 @@
         <v>1</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2039,12 +2039,12 @@
         <v>1990</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="27">
+        <v>100</v>
+      </c>
+      <c r="D25" s="19">
         <v>2533</v>
       </c>
       <c r="E25" s="6"/>
@@ -2052,11 +2052,11 @@
         <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2064,13 +2064,13 @@
         <v>2013</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8">
@@ -2082,8 +2082,8 @@
       <c r="H26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="22" t="s">
-        <v>108</v>
+      <c r="I26" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2091,26 +2091,26 @@
         <v>2005</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8">
         <v>1</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="22" t="s">
         <v>116</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2118,10 +2118,10 @@
         <v>1998</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2129,13 +2129,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2143,10 +2143,10 @@
         <v>1973</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2155,10 +2155,10 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="22" t="s">
         <v>125</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2166,10 +2166,10 @@
         <v>2003</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2177,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="22" t="s">
         <v>130</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2191,10 +2191,10 @@
         <v>2016</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2202,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>134</v>
+      <c r="I31" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2216,10 +2216,10 @@
         <v>2014</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2232,8 +2232,8 @@
       <c r="H32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>138</v>
+      <c r="I32" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2241,10 +2241,10 @@
         <v>2014</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2255,10 +2255,10 @@
         <v>20</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="22" t="s">
         <v>140</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2266,10 +2266,10 @@
         <v>2018</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2280,10 +2280,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2291,10 +2291,10 @@
         <v>2009</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2302,13 +2302,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2316,10 +2316,10 @@
         <v>1994</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2327,13 +2327,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2344,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F6">
-    <cfRule type="containsText" dxfId="30" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2361,7 +2361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2378,7 +2378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="28" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2395,7 +2395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2412,7 +2412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="26" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2429,7 +2429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="25" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2446,7 +2446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F20">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2463,7 +2463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="23" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2480,7 +2480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="22" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2497,7 +2497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2514,7 +2514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="20" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2531,7 +2531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="19" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2548,7 +2548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="18" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2565,7 +2565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="17" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2582,7 +2582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2599,7 +2599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2616,7 +2616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2633,7 +2633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="13" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2650,7 +2650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2667,7 +2667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="11" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2684,7 +2684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2701,7 +2701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2718,7 +2718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2735,7 +2735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2752,7 +2752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2769,7 +2769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2786,7 +2786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="4" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2803,7 +2803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2820,7 +2820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2837,7 +2837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2854,7 +2854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/TMP/Иностранные_дубли.xlsx
+++ b/Collections/TMP/Иностранные_дубли.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800570FA-7598-45EF-AF1F-162A34F59B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73C5CD-FC8C-4948-8428-F99047881A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8930" yWindow="4510" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2600" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Монеты" sheetId="1" r:id="rId1"/>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1845,7 +1845,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>71</v>
@@ -2126,7 +2126,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>120</v>
@@ -2151,7 +2151,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">

--- a/Collections/TMP/Иностранные_дубли.xlsx
+++ b/Collections/TMP/Иностранные_дубли.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73C5CD-FC8C-4948-8428-F99047881A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD63110-5B37-47F7-8144-5F5F6EE7DB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="2600" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Монеты" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
   <si>
     <t>-</t>
   </si>
@@ -149,24 +149,15 @@
     <t>10 центов</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/bahamas-5-cents-2015/?cid=45796</t>
-  </si>
-  <si>
     <t>0.10 USD</t>
   </si>
   <si>
     <t>$ 0,94</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/bahamas-10-cents-2016/?cid=77581</t>
-  </si>
-  <si>
     <t>25 центов</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/bahamas-25-cents-2007-2015/?tid=32744</t>
-  </si>
-  <si>
     <t>$ 1,1</t>
   </si>
   <si>
@@ -179,24 +170,15 @@
     <t>$ 0.36</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/eastern_caribbean-5-cents-1981-2000/?tid=41546</t>
-  </si>
-  <si>
     <t>0.02 USD</t>
   </si>
   <si>
     <t>$ 0.49</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/eastern_caribbean-5-cents-2002-2019/?tid=41561</t>
-  </si>
-  <si>
     <t>1 доллар</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/eastern_caribbean-1-dollar-2012-2019/?tid=41658</t>
-  </si>
-  <si>
     <t>0.37 USD</t>
   </si>
   <si>
@@ -212,18 +194,12 @@
     <t>$ 0.39</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/jamaica-5-dollars-1994-2022/?tid=24487</t>
-  </si>
-  <si>
     <t>0.03 USD</t>
   </si>
   <si>
     <t>Мексика</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/mexico-10-centavos-1992-2009/?tid=10353</t>
-  </si>
-  <si>
     <t>0.006 USD</t>
   </si>
   <si>
@@ -233,9 +209,6 @@
     <t>Албания</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/albania-10-leke-1996-2000/?tid=27104</t>
-  </si>
-  <si>
     <t>0.10 USD</t>
   </si>
   <si>
@@ -248,18 +221,12 @@
     <t>5 курушей</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/turkey-5-kurus-2009-2022/?tid=5697</t>
-  </si>
-  <si>
     <t>$ 0.13</t>
   </si>
   <si>
     <t>0.002 USD</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/turkey-10000-lira-1994-1997/?tid=16431</t>
-  </si>
-  <si>
     <t>$ 0.22</t>
   </si>
   <si>
@@ -269,9 +236,6 @@
     <t>Болгария</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/bulgaria-20-stotinki-1999-2002/?tid=13151</t>
-  </si>
-  <si>
     <t>0.11 USD</t>
   </si>
   <si>
@@ -281,9 +245,6 @@
     <t>1 писо</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/philippines-1-piso-1972-1974/?tid=32160</t>
-  </si>
-  <si>
     <t>$ 0.6</t>
   </si>
   <si>
@@ -293,9 +254,6 @@
     <t>2 форинта</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/hungary-2-forint-1992-2008/?tid=2666</t>
-  </si>
-  <si>
     <t>0.005 USD</t>
   </si>
   <si>
@@ -320,18 +278,12 @@
     <t>ММД</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/india-5-rupees-2000/?cid=25902&amp;vid=10009</t>
-  </si>
-  <si>
     <t>Кения</t>
   </si>
   <si>
     <t>5 шиллингов</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/kenya-5-shillings-2005-2009/?tid=23798</t>
-  </si>
-  <si>
     <t>$ 0.72</t>
   </si>
   <si>
@@ -347,12 +299,6 @@
     <t xml:space="preserve"> 0.05 USD</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/morocco-1-2-dirham-2011-2023/?tid=26123</t>
-  </si>
-  <si>
-    <t>https://en.ucoin.net/coin/china-1-yuan-1999-2018/?tid=5985</t>
-  </si>
-  <si>
     <t>КНР</t>
   </si>
   <si>
@@ -374,15 +320,9 @@
     <t>$ 0.27</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/cyprus-2-cents-1991-2004/?tid=14828</t>
-  </si>
-  <si>
     <t>$ 0.30</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/morocco-1-2-dirham-1987/?tid=26121</t>
-  </si>
-  <si>
     <t>1 бат</t>
   </si>
   <si>
@@ -395,27 +335,18 @@
     <t>0.0003 USD</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/thailand-1-satang-1987-2007/?tid=6130</t>
-  </si>
-  <si>
     <t>Тайвань</t>
   </si>
   <si>
     <t>年三〇一</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/taiwan-1-dollar-1981-2022/?tid=22992</t>
-  </si>
-  <si>
     <t>1 цент</t>
   </si>
   <si>
     <t>Магнитится</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/bahamas-1-cent-2014-2015/?tid=75078</t>
-  </si>
-  <si>
     <t>0.01 USD</t>
   </si>
   <si>
@@ -428,9 +359,6 @@
     <t>Не магнитится</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/canada-1-cent-2003-2012/?tid=3170</t>
-  </si>
-  <si>
     <t>$ 0.12</t>
   </si>
   <si>
@@ -446,18 +374,12 @@
     <t>0.28 USD</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/bosnia_herzegovina-50-feninga-1998-2021/?tid=30701</t>
-  </si>
-  <si>
     <t>$ 0.89</t>
   </si>
   <si>
     <t>1 эскудо</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/portugal-1-escudo-1969-1979/?tid=16183</t>
-  </si>
-  <si>
     <t>$ 0.45</t>
   </si>
   <si>
@@ -470,9 +392,6 @@
     <t>Вьетнам</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/vietnam-1000-dong-2003/?tid=24538</t>
-  </si>
-  <si>
     <t>$ 0.42</t>
   </si>
   <si>
@@ -482,9 +401,6 @@
     <t>1 динар</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/serbia-1-dinar-2011-2023/?tid=14973</t>
-  </si>
-  <si>
     <t>0.009 USD</t>
   </si>
   <si>
@@ -494,15 +410,9 @@
     <t>2 динара</t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/serbia-2-dinara-2011-2023/?tid=14980</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 динаров </t>
   </si>
   <si>
-    <t>https://en.ucoin.net/coin/serbia-5-dinara-2013-2023/?tid=27044</t>
-  </si>
-  <si>
     <t>$ 0.65</t>
   </si>
   <si>
@@ -516,12 +426,6 @@
   </si>
   <si>
     <t>$ 0.31</t>
-  </si>
-  <si>
-    <t>https://en.ucoin.net/coin/argentina-25-centavos-1992-2010/?tid=10063</t>
-  </si>
-  <si>
-    <t>https://en.ucoin.net/coin/south_africa-20-cents-1990-1995/?tid=17828</t>
   </si>
   <si>
     <t>ЮАР</t>
@@ -1423,7 +1327,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1473,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
@@ -1491,23 +1395,23 @@
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8">
         <v>5</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1533,7 +1437,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1552,13 +1456,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1569,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1577,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1591,7 +1495,7 @@
         <v>2000</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -1602,13 +1506,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1616,7 +1520,7 @@
         <v>2015</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -1627,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1641,10 +1545,10 @@
         <v>2012</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1652,13 +1556,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1666,10 +1570,10 @@
         <v>1996</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1677,13 +1581,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1691,7 +1595,7 @@
         <v>2007</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>21</v>
@@ -1702,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1716,10 +1620,10 @@
         <v>1996</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1727,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1741,10 +1645,10 @@
         <v>2009</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1752,13 +1656,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1766,10 +1670,10 @@
         <v>1995</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1778,10 +1682,10 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1789,10 +1693,10 @@
         <v>1999</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1800,13 +1704,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1814,10 +1718,10 @@
         <v>1972</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1826,10 +1730,10 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1837,10 +1741,10 @@
         <v>1994</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1848,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1862,28 +1766,28 @@
         <v>2000</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1891,10 +1795,10 @@
         <v>2009</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1902,13 +1806,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1916,10 +1820,10 @@
         <v>1987</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1930,10 +1834,10 @@
         <v>20</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1941,10 +1845,10 @@
         <v>2012</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1952,13 +1856,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1966,10 +1870,10 @@
         <v>2009</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1977,13 +1881,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1991,10 +1895,10 @@
         <v>1996</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2003,10 +1907,10 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2014,10 +1918,10 @@
         <v>2001</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D24" s="19">
         <v>2544</v>
@@ -2027,11 +1931,11 @@
         <v>1</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="18" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2039,10 +1943,10 @@
         <v>1990</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D25" s="19">
         <v>2533</v>
@@ -2052,11 +1956,11 @@
         <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="18" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2064,26 +1968,26 @@
         <v>2013</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8">
         <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2091,26 +1995,26 @@
         <v>2005</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8">
         <v>1</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2118,10 +2022,10 @@
         <v>1998</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2129,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2143,10 +2047,10 @@
         <v>1973</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2155,10 +2059,10 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2166,10 +2070,10 @@
         <v>2003</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2177,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2191,10 +2095,10 @@
         <v>2016</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2202,13 +2106,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2216,10 +2120,10 @@
         <v>2014</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2227,13 +2131,13 @@
         <v>2</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2241,10 +2145,10 @@
         <v>2014</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2255,10 +2159,10 @@
         <v>20</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2266,10 +2170,10 @@
         <v>2018</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2280,10 +2184,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2291,10 +2195,10 @@
         <v>2009</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2302,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2316,10 +2220,10 @@
         <v>1994</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2327,13 +2231,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/TMP/Иностранные_дубли.xlsx
+++ b/Collections/TMP/Иностранные_дубли.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD63110-5B37-47F7-8144-5F5F6EE7DB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE05A4-31E6-46F9-A132-6D166A4033D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Монеты" sheetId="1" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1603,7 +1603,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>39</v>
@@ -1726,7 +1726,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
@@ -1778,7 +1778,7 @@
         <v>64</v>
       </c>
       <c r="F18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
@@ -1803,7 +1803,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>68</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>93</v>
@@ -2128,7 +2128,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>29</v>
@@ -2228,7 +2228,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>88</v>

--- a/Collections/TMP/Иностранные_дубли.xlsx
+++ b/Collections/TMP/Иностранные_дубли.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE05A4-31E6-46F9-A132-6D166A4033D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EB634-1E96-4AD5-8214-209AA6C2EB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,36 +52,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{609A4DDE-9222-4BA7-A12F-86A652D95829}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>По сост. на 2024 с сайта https://en.ucoin.net/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
   <si>
     <t>-</t>
   </si>
@@ -137,9 +113,6 @@
     <t>Багамские острова</t>
   </si>
   <si>
-    <t>$ 0.63</t>
-  </si>
-  <si>
     <t>Номинал в $</t>
   </si>
   <si>
@@ -152,48 +125,30 @@
     <t>0.10 USD</t>
   </si>
   <si>
-    <t>$ 0,94</t>
-  </si>
-  <si>
     <t>25 центов</t>
   </si>
   <si>
-    <t>$ 1,1</t>
-  </si>
-  <si>
     <t>0.25 USD</t>
   </si>
   <si>
     <t>Восточно-карибские острова</t>
   </si>
   <si>
-    <t>$ 0.36</t>
-  </si>
-  <si>
     <t>0.02 USD</t>
   </si>
   <si>
-    <t>$ 0.49</t>
-  </si>
-  <si>
     <t>1 доллар</t>
   </si>
   <si>
     <t>0.37 USD</t>
   </si>
   <si>
-    <t>$ 1.14</t>
-  </si>
-  <si>
     <t>Ямайка</t>
   </si>
   <si>
     <t>5 долларов</t>
   </si>
   <si>
-    <t>$ 0.39</t>
-  </si>
-  <si>
     <t>0.03 USD</t>
   </si>
   <si>
@@ -203,9 +158,6 @@
     <t>0.006 USD</t>
   </si>
   <si>
-    <t>$ 0.24</t>
-  </si>
-  <si>
     <t>Албания</t>
   </si>
   <si>
@@ -221,15 +173,9 @@
     <t>5 курушей</t>
   </si>
   <si>
-    <t>$ 0.13</t>
-  </si>
-  <si>
     <t>0.002 USD</t>
   </si>
   <si>
-    <t>$ 0.22</t>
-  </si>
-  <si>
     <t>20 стотинок</t>
   </si>
   <si>
@@ -245,9 +191,6 @@
     <t>1 писо</t>
   </si>
   <si>
-    <t>$ 0.6</t>
-  </si>
-  <si>
     <t>Венгрия</t>
   </si>
   <si>
@@ -257,9 +200,6 @@
     <t>0.005 USD</t>
   </si>
   <si>
-    <t>$ 0.16</t>
-  </si>
-  <si>
     <t>Индия</t>
   </si>
   <si>
@@ -269,9 +209,6 @@
     <t>0.06 USD</t>
   </si>
   <si>
-    <t>$ 0.44</t>
-  </si>
-  <si>
     <t>Subtype_3</t>
   </si>
   <si>
@@ -284,9 +221,6 @@
     <t>5 шиллингов</t>
   </si>
   <si>
-    <t>$ 0.72</t>
-  </si>
-  <si>
     <t>0.04 USD</t>
   </si>
   <si>
@@ -308,21 +242,12 @@
     <t>0.14 USD</t>
   </si>
   <si>
-    <t>$ 0.26</t>
-  </si>
-  <si>
     <t>Кипр</t>
   </si>
   <si>
     <t>2 цента</t>
   </si>
   <si>
-    <t>$ 0.27</t>
-  </si>
-  <si>
-    <t>$ 0.30</t>
-  </si>
-  <si>
     <t>1 бат</t>
   </si>
   <si>
@@ -359,9 +284,6 @@
     <t>Не магнитится</t>
   </si>
   <si>
-    <t>$ 0.12</t>
-  </si>
-  <si>
     <t>0.007 USD</t>
   </si>
   <si>
@@ -374,15 +296,9 @@
     <t>0.28 USD</t>
   </si>
   <si>
-    <t>$ 0.89</t>
-  </si>
-  <si>
     <t>1 эскудо</t>
   </si>
   <si>
-    <t>$ 0.45</t>
-  </si>
-  <si>
     <t>Португалия</t>
   </si>
   <si>
@@ -392,9 +308,6 @@
     <t>Вьетнам</t>
   </si>
   <si>
-    <t>$ 0.42</t>
-  </si>
-  <si>
     <t>Сербия</t>
   </si>
   <si>
@@ -404,40 +317,43 @@
     <t>0.009 USD</t>
   </si>
   <si>
-    <t>$ 0.86</t>
-  </si>
-  <si>
     <t>2 динара</t>
   </si>
   <si>
     <t xml:space="preserve">5 динаров </t>
   </si>
   <si>
-    <t>$ 0.65</t>
-  </si>
-  <si>
-    <t>$ 1.08</t>
-  </si>
-  <si>
     <t>Аргентина</t>
   </si>
   <si>
     <t>25 сентаво</t>
   </si>
   <si>
-    <t>$ 0.31</t>
-  </si>
-  <si>
     <t>ЮАР</t>
   </si>
   <si>
-    <t>$ 0.23</t>
-  </si>
-  <si>
     <t>20 центов</t>
   </si>
   <si>
     <t>1000 лир</t>
+  </si>
+  <si>
+    <t>Казахстан</t>
+  </si>
+  <si>
+    <t>5 тенге</t>
+  </si>
+  <si>
+    <t>Курс</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>50 тенге</t>
   </si>
 </sst>
 </file>
@@ -447,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-D00041E]0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -488,19 +404,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -656,7 +559,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +641,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -746,15 +658,6 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1001,6 +904,15 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1053,9 +965,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="32" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1324,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1335,14 +1247,13 @@
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="5" width="24.81640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="11" width="11.1796875" customWidth="1"/>
-    <col min="12" max="31" width="8.7265625" customWidth="1"/>
+    <col min="7" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" customWidth="1"/>
+    <col min="13" max="32" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -1358,16 +1269,20 @@
         <v>12</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="31"/>
+      <c r="J1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
@@ -1377,17 +1292,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="1"/>
+      <c r="O2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2015</v>
       </c>
@@ -1395,27 +1318,31 @@
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8">
         <v>5</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="I3" s="7">
+        <f>H3*$O$2</f>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2015</v>
       </c>
@@ -1431,16 +1358,20 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I40" si="0">H4*$O$2</f>
+        <v>56.7</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2016</v>
       </c>
@@ -1448,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1456,16 +1387,20 @@
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>84.6</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -1473,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1481,21 +1416,25 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2000</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -1506,21 +1445,25 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>32.4</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2015</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -1531,24 +1474,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>44.1</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2012</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1556,24 +1503,28 @@
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>102.6</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1996</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1581,24 +1532,28 @@
         <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>35.1</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2007</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1606,24 +1561,28 @@
         <v>0</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1996</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1631,24 +1590,28 @@
         <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>35.1</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2009</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1656,24 +1619,28 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>1995</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1681,22 +1648,26 @@
         <v>1</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>1999</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1704,24 +1675,28 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1972</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1729,22 +1704,26 @@
         <v>0</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>1994</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1752,53 +1731,61 @@
         <v>0</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>2000</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>39.6</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>2009</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1806,24 +1793,28 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="0"/>
+        <v>64.8</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>1987</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1831,24 +1822,28 @@
         <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>2012</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1856,24 +1851,28 @@
         <v>1</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="0"/>
+        <v>56.7</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>2009</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1881,24 +1880,28 @@
         <v>1</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="0"/>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>1996</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1906,22 +1909,26 @@
         <v>1</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="0"/>
+        <v>24.3</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>2001</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D24" s="19">
         <v>2544</v>
@@ -1931,22 +1938,23 @@
         <v>1</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="7"/>
+      <c r="J24" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>1990</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D25" s="19">
         <v>2533</v>
@@ -1956,76 +1964,85 @@
         <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="7"/>
+      <c r="J25" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>2013</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8">
         <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>2005</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8">
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="0"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>1998</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2033,24 +2050,28 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="0"/>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>1973</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2058,22 +2079,26 @@
         <v>0</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>2003</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2081,24 +2106,28 @@
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="0"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>2016</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2106,24 +2135,28 @@
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="0"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>2014</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2131,24 +2164,28 @@
         <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="0"/>
+        <v>35.1</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>2014</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2156,24 +2193,28 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2018</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2181,24 +2222,28 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>97.2</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>2009</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2206,49 +2251,174 @@
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>1994</v>
+        <v>2012</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="18" t="s">
+      <c r="G40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="0"/>
+        <v>20.7</v>
+      </c>
+      <c r="J40" s="18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F6">
-    <cfRule type="containsText" dxfId="33" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2265,7 +2435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2282,7 +2452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="31" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2299,7 +2469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="30" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2316,7 +2486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="29" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2333,7 +2503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="28" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2350,7 +2520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F20">
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2367,7 +2537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2384,7 +2554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="25" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2401,7 +2571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2418,7 +2588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2435,7 +2605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2452,7 +2622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2469,7 +2639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2486,7 +2656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2503,7 +2673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2520,7 +2690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2537,7 +2707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2554,7 +2724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2571,7 +2741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="14" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2588,7 +2758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2605,7 +2775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="12" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2622,7 +2792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2639,7 +2809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2656,7 +2826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2673,7 +2843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2690,7 +2860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2707,7 +2877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2724,7 +2894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2740,12 +2910,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F35:F39">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2757,12 +2927,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F40">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2775,44 +2945,48 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{D581BBEA-4CE7-4140-A388-BB6ADD5E205F}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{E87E7E21-F9AA-442A-B1E8-5086071B34AF}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{34B372E3-E48E-4DA1-8E8C-1DBA90FCF511}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{A48E4F8B-5308-4EEF-B56F-0DBA158FD7CF}"/>
-    <hyperlink ref="I9" r:id="rId5" xr:uid="{C54BD6E9-6C5A-4810-B2C4-35BACF2B34E6}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{EBB388C3-B501-4767-83B9-11B165638472}"/>
-    <hyperlink ref="I11" r:id="rId7" xr:uid="{3F8E40E1-EA96-4AB1-A26C-DEDF081613C3}"/>
-    <hyperlink ref="I12" r:id="rId8" xr:uid="{CD3F5AB4-D4BC-446B-B91C-096F0A435836}"/>
-    <hyperlink ref="I13" r:id="rId9" xr:uid="{C78AC651-D2B8-4E4C-839C-5245D67942B0}"/>
-    <hyperlink ref="I4" r:id="rId10" xr:uid="{5B8BCD0F-5F81-4E10-807F-AC9C4D87B76E}"/>
-    <hyperlink ref="I14" r:id="rId11" xr:uid="{35A66F3D-C59A-4229-953A-4C257E7F97D5}"/>
-    <hyperlink ref="I15" r:id="rId12" xr:uid="{08B2985A-AF3B-4E0A-AA81-01C0E6D7486B}"/>
-    <hyperlink ref="I16" r:id="rId13" xr:uid="{BD8DB555-F313-4E57-8EC4-9B67344E982E}"/>
-    <hyperlink ref="I17" r:id="rId14" xr:uid="{82093666-4269-4D61-9823-330F011270FA}"/>
-    <hyperlink ref="I18" r:id="rId15" xr:uid="{A0F2AF77-267C-4386-8440-FB855F73BDB3}"/>
-    <hyperlink ref="I19" r:id="rId16" xr:uid="{687C7065-5D39-44BC-BB87-1D01E71EE8B6}"/>
-    <hyperlink ref="I21" r:id="rId17" xr:uid="{A3C8B672-0678-4BB2-A2E5-17374B3BE873}"/>
-    <hyperlink ref="I22" r:id="rId18" xr:uid="{869CE23A-5632-4609-B15F-44DAB78B7207}"/>
-    <hyperlink ref="I23" r:id="rId19" xr:uid="{08DEDCF5-44EE-44C6-888A-A40B2D056617}"/>
-    <hyperlink ref="I20" r:id="rId20" xr:uid="{88CF0A7B-7DBA-48B2-BB79-2372F6ACBE12}"/>
-    <hyperlink ref="I24" r:id="rId21" xr:uid="{B0CBA1FA-9391-4351-BB69-F58530907008}"/>
-    <hyperlink ref="I25" r:id="rId22" xr:uid="{C62E3DC5-39C5-4068-86AA-AC3FD82D0A8D}"/>
-    <hyperlink ref="I26" r:id="rId23" xr:uid="{0F1B7EFD-9F77-4061-BA6B-8FF6DFC2F587}"/>
-    <hyperlink ref="I3" r:id="rId24" xr:uid="{974DD1ED-5089-4432-9229-C8F8B5E3A0FB}"/>
-    <hyperlink ref="I27" r:id="rId25" xr:uid="{1090A155-E964-416D-91AD-08727373E766}"/>
-    <hyperlink ref="I28" r:id="rId26" xr:uid="{9D7889A2-184A-4A57-A871-2C798BE42812}"/>
-    <hyperlink ref="I29" r:id="rId27" xr:uid="{83B1595A-3BEC-4332-BAFB-59500A060336}"/>
-    <hyperlink ref="I30" r:id="rId28" xr:uid="{6C70F423-DEFA-4B8A-A8CE-1102B6155B1E}"/>
-    <hyperlink ref="I31" r:id="rId29" xr:uid="{A534FC2F-0238-4AB6-9F6B-FAEFFB28EF2D}"/>
-    <hyperlink ref="I32" r:id="rId30" xr:uid="{C81B077E-89A6-452E-A7C5-7A86913C1A3E}"/>
-    <hyperlink ref="I33" r:id="rId31" xr:uid="{B8AB633F-C79E-4641-AFB4-7F65634D214B}"/>
-    <hyperlink ref="I34" r:id="rId32" xr:uid="{D6CA81C5-FFC1-4861-89D0-3B8270E91B24}"/>
-    <hyperlink ref="I35" r:id="rId33" xr:uid="{F029E147-2FC0-4ED4-A9BA-B3AEF8F83338}"/>
-    <hyperlink ref="I36" r:id="rId34" xr:uid="{2D0691BA-700B-4FCB-B04E-32BA951E7412}"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{D581BBEA-4CE7-4140-A388-BB6ADD5E205F}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{E87E7E21-F9AA-442A-B1E8-5086071B34AF}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{34B372E3-E48E-4DA1-8E8C-1DBA90FCF511}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{A48E4F8B-5308-4EEF-B56F-0DBA158FD7CF}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{C54BD6E9-6C5A-4810-B2C4-35BACF2B34E6}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{EBB388C3-B501-4767-83B9-11B165638472}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{3F8E40E1-EA96-4AB1-A26C-DEDF081613C3}"/>
+    <hyperlink ref="J12" r:id="rId8" xr:uid="{CD3F5AB4-D4BC-446B-B91C-096F0A435836}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{C78AC651-D2B8-4E4C-839C-5245D67942B0}"/>
+    <hyperlink ref="J4" r:id="rId10" xr:uid="{5B8BCD0F-5F81-4E10-807F-AC9C4D87B76E}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{35A66F3D-C59A-4229-953A-4C257E7F97D5}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{08B2985A-AF3B-4E0A-AA81-01C0E6D7486B}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{BD8DB555-F313-4E57-8EC4-9B67344E982E}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{82093666-4269-4D61-9823-330F011270FA}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{A0F2AF77-267C-4386-8440-FB855F73BDB3}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{687C7065-5D39-44BC-BB87-1D01E71EE8B6}"/>
+    <hyperlink ref="J21" r:id="rId17" xr:uid="{A3C8B672-0678-4BB2-A2E5-17374B3BE873}"/>
+    <hyperlink ref="J22" r:id="rId18" xr:uid="{869CE23A-5632-4609-B15F-44DAB78B7207}"/>
+    <hyperlink ref="J23" r:id="rId19" xr:uid="{08DEDCF5-44EE-44C6-888A-A40B2D056617}"/>
+    <hyperlink ref="J20" r:id="rId20" xr:uid="{88CF0A7B-7DBA-48B2-BB79-2372F6ACBE12}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{B0CBA1FA-9391-4351-BB69-F58530907008}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{C62E3DC5-39C5-4068-86AA-AC3FD82D0A8D}"/>
+    <hyperlink ref="J26" r:id="rId23" xr:uid="{0F1B7EFD-9F77-4061-BA6B-8FF6DFC2F587}"/>
+    <hyperlink ref="J3" r:id="rId24" xr:uid="{974DD1ED-5089-4432-9229-C8F8B5E3A0FB}"/>
+    <hyperlink ref="J27" r:id="rId25" xr:uid="{1090A155-E964-416D-91AD-08727373E766}"/>
+    <hyperlink ref="J28" r:id="rId26" xr:uid="{9D7889A2-184A-4A57-A871-2C798BE42812}"/>
+    <hyperlink ref="J29" r:id="rId27" xr:uid="{83B1595A-3BEC-4332-BAFB-59500A060336}"/>
+    <hyperlink ref="J30" r:id="rId28" xr:uid="{6C70F423-DEFA-4B8A-A8CE-1102B6155B1E}"/>
+    <hyperlink ref="J31" r:id="rId29" xr:uid="{A534FC2F-0238-4AB6-9F6B-FAEFFB28EF2D}"/>
+    <hyperlink ref="J32" r:id="rId30" xr:uid="{C81B077E-89A6-452E-A7C5-7A86913C1A3E}"/>
+    <hyperlink ref="J33" r:id="rId31" xr:uid="{B8AB633F-C79E-4641-AFB4-7F65634D214B}"/>
+    <hyperlink ref="J34" r:id="rId32" xr:uid="{D6CA81C5-FFC1-4861-89D0-3B8270E91B24}"/>
+    <hyperlink ref="J35" r:id="rId33" xr:uid="{F029E147-2FC0-4ED4-A9BA-B3AEF8F83338}"/>
+    <hyperlink ref="J40" r:id="rId34" xr:uid="{2D0691BA-700B-4FCB-B04E-32BA951E7412}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{73A10ED3-2F5B-4F97-81ED-30385FA901D7}"/>
+    <hyperlink ref="J37" r:id="rId36" xr:uid="{40F894A3-654F-48AE-B508-E435F8B7FCC3}"/>
+    <hyperlink ref="J38" r:id="rId37" xr:uid="{26540E1B-8AA5-4119-8344-31C19EC098B6}"/>
+    <hyperlink ref="J39" r:id="rId38" xr:uid="{047833CA-2665-4636-BC0A-889B880D1AC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
-  <legacyDrawing r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <legacyDrawing r:id="rId40"/>
 </worksheet>
 </file>
 
